--- a/Untitled 1.xlsx
+++ b/Untitled 1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="167">
   <si>
     <t xml:space="preserve">Symbol</t>
   </si>
@@ -91,6 +91,9 @@
     <t xml:space="preserve">C</t>
   </si>
   <si>
+    <t xml:space="preserve">Specific heat</t>
+  </si>
+  <si>
     <t xml:space="preserve">D</t>
   </si>
   <si>
@@ -109,12 +112,15 @@
     <t xml:space="preserve">G</t>
   </si>
   <si>
-    <t xml:space="preserve">Gravitational constant</t>
+    <t xml:space="preserve">Gravitational constant, Gibbs free energy</t>
   </si>
   <si>
     <t xml:space="preserve">H</t>
   </si>
   <si>
+    <t xml:space="preserve">Enthalpy</t>
+  </si>
+  <si>
     <t xml:space="preserve">I</t>
   </si>
   <si>
@@ -139,6 +145,9 @@
     <t xml:space="preserve">N</t>
   </si>
   <si>
+    <t xml:space="preserve">Normal force</t>
+  </si>
+  <si>
     <t xml:space="preserve">O</t>
   </si>
   <si>
@@ -151,6 +160,9 @@
     <t xml:space="preserve">Q</t>
   </si>
   <si>
+    <t xml:space="preserve">Heat</t>
+  </si>
+  <si>
     <t xml:space="preserve">R</t>
   </si>
   <si>
@@ -160,6 +172,9 @@
     <t xml:space="preserve">S</t>
   </si>
   <si>
+    <t xml:space="preserve">Entropy</t>
+  </si>
+  <si>
     <t xml:space="preserve">T</t>
   </si>
   <si>
@@ -169,9 +184,15 @@
     <t xml:space="preserve">U</t>
   </si>
   <si>
+    <t xml:space="preserve">Internal energy</t>
+  </si>
+  <si>
     <t xml:space="preserve">V</t>
   </si>
   <si>
+    <t xml:space="preserve">Volume</t>
+  </si>
+  <si>
     <t xml:space="preserve">W</t>
   </si>
   <si>
@@ -394,6 +415,9 @@
     <t xml:space="preserve">eta</t>
   </si>
   <si>
+    <t xml:space="preserve">Efficiency</t>
+  </si>
+  <si>
     <t xml:space="preserve">θ</t>
   </si>
   <si>
@@ -479,6 +503,9 @@
   </si>
   <si>
     <t xml:space="preserve">φ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porosity</t>
   </si>
   <si>
     <t xml:space="preserve">χ</t>
@@ -503,11 +530,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -528,12 +556,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -608,36 +630,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -826,701 +844,728 @@
   </sheetPr>
   <dimension ref="A1:S88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E83" activeCellId="0" sqref="E83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="0" width="20.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="20.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="1" width="20.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>23</v>
+      <c r="A5" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>30</v>
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>31</v>
+      <c r="A10" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>32</v>
+      <c r="A11" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>79</v>
+      <c r="A46" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>81</v>
+      <c r="A47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>82</v>
+      <c r="A48" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>84</v>
+      <c r="A49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>85</v>
+      <c r="A50" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>87</v>
+      <c r="A51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>88</v>
+      <c r="A52" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>89</v>
+      <c r="A53" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>91</v>
+      <c r="A54" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>93</v>
+      <c r="A55" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>95</v>
+      <c r="A56" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>97</v>
+      <c r="A57" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>99</v>
+      <c r="A58" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>101</v>
+      <c r="A59" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>103</v>
+      <c r="A60" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>105</v>
+      <c r="A61" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>107</v>
+      <c r="A62" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E64" s="0" t="s">
+      <c r="E82" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5" t="s">
+      <c r="E85" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E82" s="0" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E83" s="0" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E88" s="0" t="s">
-        <v>157</v>
+        <v>165</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
